--- a/space/device/製品管理_機能一覧.xlsx
+++ b/space/device/製品管理_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/device/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D5D04-586F-D148-959C-D23CBDA48876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D4D7CC-E9CD-4541-8878-BAD381EF5CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -99,13 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>common_function.jsに詳細記入</t>
-    <rPh sb="19" eb="23">
-      <t>ショウサイキンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>製品管理</t>
     <rPh sb="0" eb="2">
       <t>セイヒn</t>
@@ -119,6 +112,35 @@
     <t>defective_adp（交換履歴）</t>
     <rPh sb="14" eb="18">
       <t>コウカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウジゼィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換品に故障品情報を挿入</t>
+    <rPh sb="0" eb="3">
+      <t>コウカn</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>コショウヒンジョウヘ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -691,7 +713,7 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="14">
@@ -735,20 +757,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="20">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="5">
@@ -761,16 +785,14 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+    <row r="7" spans="1:8" ht="14">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:8" ht="14">
       <c r="A8"/>
@@ -1077,15 +1099,6 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="14">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
